--- a/MISLAND/data/summary_table_ldn_sdg.xlsx
+++ b/MISLAND/data/summary_table_ldn_sdg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azvol\Code\LandDegradation\trends.earth\LDMP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\trends.earth\MISLAND\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E2F0AD-AFD8-4552-9AFA-7F8779FA6668}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF855E42-1A91-4273-85CA-B101FF170195}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDG 15.3.1" sheetId="5" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Land cover" sheetId="8" r:id="rId4"/>
     <sheet name="UNCCD Reporting" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="87">
   <si>
     <t>Land area with improved productivity:</t>
   </si>
@@ -155,12 +155,6 @@
     <t>Page 8 of 34 - SO1-3 Trends in carbon stock above and below ground</t>
   </si>
   <si>
-    <t>trends.earth output summarized in UNCCD reporting format</t>
-  </si>
-  <si>
-    <t>Trends.Earth SDG 15.3.1 summary table</t>
-  </si>
-  <si>
     <t>Summary of SDG 15.3.1 Indicator</t>
   </si>
   <si>
@@ -176,15 +170,6 @@
     <t>Land area with no data:</t>
   </si>
   <si>
-    <t>For more information on Trends.Earth, see http://trends.earth, or contact the team at trends.earth@conservation.org.</t>
-  </si>
-  <si>
-    <t>Trends.Earth productivity summary table</t>
-  </si>
-  <si>
-    <t>Trends.Earth soil organic carbon summary table</t>
-  </si>
-  <si>
     <t>Land area with improved soil organic carbon:</t>
   </si>
   <si>
@@ -203,9 +188,6 @@
     <t>Soil organic carbon change from baseline to target</t>
   </si>
   <si>
-    <t>Trends.Earth land cover summary table</t>
-  </si>
-  <si>
     <t>Land area with improved land cover:</t>
   </si>
   <si>
@@ -288,6 +270,21 @@
   </si>
   <si>
     <t>Summary of change in productivity</t>
+  </si>
+  <si>
+    <t>Misland SDG 15.3.1 summary table</t>
+  </si>
+  <si>
+    <t>Misland productivity summary table</t>
+  </si>
+  <si>
+    <t>Misland soil organic carbon summary table</t>
+  </si>
+  <si>
+    <t>Misland land cover summary table</t>
+  </si>
+  <si>
+    <t>Misland output summarized in UNCCD reporting format</t>
   </si>
 </sst>
 </file>
@@ -295,8 +292,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -790,7 +787,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -933,10 +930,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -987,19 +984,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1012,6 +1009,18 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1135,18 +1144,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1476,22 +1473,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="43"/>
-    <col min="2" max="2" width="14.54296875" style="43" customWidth="1"/>
-    <col min="3" max="5" width="15.54296875" style="44" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="44" customWidth="1"/>
-    <col min="7" max="9" width="15.54296875" style="44" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="43"/>
+    <col min="1" max="1" width="9.21875" style="43"/>
+    <col min="2" max="2" width="14.5546875" style="43" customWidth="1"/>
+    <col min="3" max="5" width="15.5546875" style="44" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="44" customWidth="1"/>
+    <col min="7" max="9" width="15.5546875" style="44" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
@@ -1503,42 +1502,42 @@
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="1:10" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+    </row>
+    <row r="4" spans="1:10" s="49" customFormat="1" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A4" s="51"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
       <c r="F4" s="56" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="E5" s="28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F5" s="54">
         <f>SUM(F6:F9)</f>
@@ -1549,10 +1548,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="E6" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="76"/>
       <c r="G6" s="77" t="e">
@@ -1561,10 +1560,10 @@
       </c>
       <c r="H6" s="50"/>
     </row>
-    <row r="7" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="E7" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="29" t="e">
@@ -1573,10 +1572,10 @@
       </c>
       <c r="H7" s="50"/>
     </row>
-    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="E8" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="81" t="e">
@@ -1585,10 +1584,10 @@
       </c>
       <c r="H8" s="50"/>
     </row>
-    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="E9" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="79" t="e">
@@ -1597,27 +1596,25 @@
       </c>
       <c r="H9" s="50"/>
     </row>
-    <row r="10" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="86" t="s">
+    <row r="11" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1633,52 +1630,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="43" customWidth="1"/>
-    <col min="3" max="9" width="15.54296875" style="44" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="43"/>
+    <col min="1" max="1" width="8.77734375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="43" customWidth="1"/>
+    <col min="3" max="9" width="15.5546875" style="44" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="75" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="75" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+    </row>
+    <row r="4" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="F4" s="56" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="E5" s="28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F5" s="54">
         <f>SUM(F6:F9)</f>
@@ -1689,7 +1688,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="E6" s="28" t="s">
         <v>0</v>
@@ -1700,7 +1699,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="E7" s="28" t="s">
         <v>1</v>
@@ -1711,7 +1710,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="E8" s="28" t="s">
         <v>2</v>
@@ -1722,7 +1721,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="E9" s="28" t="s">
         <v>3</v>
@@ -1733,7 +1732,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
@@ -1744,21 +1743,21 @@
       <c r="I10" s="73"/>
       <c r="J10" s="74"/>
     </row>
-    <row r="11" spans="1:10" s="75" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-    </row>
-    <row r="12" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" s="75" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+    </row>
+    <row r="12" spans="1:10" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
@@ -1769,34 +1768,34 @@
       <c r="I12" s="73"/>
       <c r="J12" s="74"/>
     </row>
-    <row r="13" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-    </row>
-    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C15" s="136" t="s">
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C15" s="88" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -1812,7 +1811,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I15" s="15" t="s">
         <v>9</v>
@@ -1821,11 +1820,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="92" t="s">
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="23"/>
@@ -1840,8 +1839,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="88"/>
+    <row r="17" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="92"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1857,8 +1856,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
+    <row r="18" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="92"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1874,8 +1873,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="88"/>
+    <row r="19" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="92"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1891,8 +1890,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="88"/>
+    <row r="20" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="92"/>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1908,10 +1907,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="88"/>
+    <row r="21" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="92"/>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -1925,8 +1924,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="88"/>
+    <row r="22" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="92"/>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1942,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>10</v>
@@ -1980,34 +1979,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-    </row>
-    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C27" s="135" t="s">
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C27" s="87" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2023,7 +2022,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>9</v>
@@ -2032,11 +2031,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="92" t="s">
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="23"/>
@@ -2051,8 +2050,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="88"/>
+    <row r="29" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="92"/>
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
@@ -2068,8 +2067,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="88"/>
+    <row r="30" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="92"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2085,8 +2084,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="88"/>
+    <row r="31" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="92"/>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
@@ -2102,8 +2101,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="88"/>
+    <row r="32" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="92"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2119,10 +2118,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="88"/>
+    <row r="33" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="92"/>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
@@ -2136,8 +2135,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="88"/>
+    <row r="34" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="92"/>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
         <v>10</v>
@@ -2191,34 +2190,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="98"/>
-    </row>
-    <row r="38" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="100"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="102"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-    </row>
-    <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C39" s="135" t="s">
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+    </row>
+    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C39" s="87" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2234,7 +2233,7 @@
         <v>8</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>9</v>
@@ -2243,11 +2242,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="92" t="s">
+    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="133" t="s">
+      <c r="B40" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="23"/>
@@ -2262,8 +2261,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="88"/>
+    <row r="41" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="92"/>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
@@ -2279,8 +2278,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="88"/>
+    <row r="42" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="92"/>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
@@ -2296,8 +2295,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="88"/>
+    <row r="43" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="92"/>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
@@ -2313,8 +2312,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="88"/>
+    <row r="44" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="92"/>
       <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
@@ -2330,10 +2329,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="88"/>
+    <row r="45" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="92"/>
       <c r="B45" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -2347,8 +2346,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="88"/>
+    <row r="46" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="92"/>
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="6" t="s">
         <v>10</v>
@@ -2402,34 +2401,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="99" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="102"/>
-    </row>
-    <row r="50" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="104"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="106"/>
+    </row>
+    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
-      <c r="C50" s="90" t="s">
+      <c r="C50" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-    </row>
-    <row r="51" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C51" s="135" t="s">
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+    </row>
+    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C51" s="87" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -2445,7 +2444,7 @@
         <v>8</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>9</v>
@@ -2454,11 +2453,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="92" t="s">
+    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="133" t="s">
+      <c r="B52" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="23"/>
@@ -2473,8 +2472,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="88"/>
+    <row r="53" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="92"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -2490,8 +2489,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="88"/>
+    <row r="54" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="92"/>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
@@ -2507,8 +2506,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="88"/>
+    <row r="55" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="92"/>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
@@ -2524,8 +2523,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="88"/>
+    <row r="56" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="92"/>
       <c r="B56" s="2" t="s">
         <v>8</v>
       </c>
@@ -2541,10 +2540,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="88"/>
+    <row r="57" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="92"/>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
@@ -2558,8 +2557,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="88"/>
+    <row r="58" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="92"/>
       <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
@@ -2575,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="6" t="s">
         <v>10</v>
@@ -2613,35 +2612,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="106"/>
-    </row>
-    <row r="62" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="108"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="110"/>
+    </row>
+    <row r="62" spans="1:10" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
-      <c r="C62" s="90" t="s">
+      <c r="C62" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="91"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="95"/>
       <c r="J62" s="74"/>
     </row>
-    <row r="63" spans="1:10" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="C63" s="135" t="s">
+    <row r="63" spans="1:10" s="75" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C63" s="87" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -2657,7 +2656,7 @@
         <v>8</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>9</v>
@@ -2666,11 +2665,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="92" t="s">
+    <row r="64" spans="1:10" s="75" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="133" t="s">
+      <c r="B64" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C64" s="23"/>
@@ -2685,8 +2684,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="88"/>
+    <row r="65" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="92"/>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
@@ -2702,8 +2701,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="88"/>
+    <row r="66" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="92"/>
       <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
@@ -2719,8 +2718,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="88"/>
+    <row r="67" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="92"/>
       <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
@@ -2736,8 +2735,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="88"/>
+    <row r="68" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="92"/>
       <c r="B68" s="2" t="s">
         <v>8</v>
       </c>
@@ -2753,10 +2752,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="88"/>
+    <row r="69" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="92"/>
       <c r="B69" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
@@ -2770,8 +2769,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="88"/>
+    <row r="70" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="92"/>
       <c r="B70" s="2" t="s">
         <v>9</v>
       </c>
@@ -2787,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="6" t="s">
         <v>10</v>
@@ -2825,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
@@ -2835,35 +2834,35 @@
       <c r="I72" s="73"/>
       <c r="J72" s="74"/>
     </row>
-    <row r="73" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="107" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="108"/>
-      <c r="C73" s="109"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="109"/>
-      <c r="G73" s="109"/>
-      <c r="H73" s="109"/>
-      <c r="I73" s="109"/>
-      <c r="J73" s="110"/>
-    </row>
-    <row r="74" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="111" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="112"/>
+      <c r="C73" s="113"/>
+      <c r="D73" s="113"/>
+      <c r="E73" s="113"/>
+      <c r="F73" s="113"/>
+      <c r="G73" s="113"/>
+      <c r="H73" s="113"/>
+      <c r="I73" s="113"/>
+      <c r="J73" s="114"/>
+    </row>
+    <row r="74" spans="1:10" s="75" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
-      <c r="C74" s="90" t="s">
+      <c r="C74" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="95"/>
+      <c r="I74" s="95"/>
       <c r="J74" s="74"/>
     </row>
-    <row r="75" spans="1:10" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="C75" s="135" t="s">
+    <row r="75" spans="1:10" s="75" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C75" s="87" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -2879,7 +2878,7 @@
         <v>8</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>9</v>
@@ -2888,11 +2887,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="92" t="s">
+    <row r="76" spans="1:10" s="75" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="133" t="s">
+      <c r="B76" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C76" s="23"/>
@@ -2907,8 +2906,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="88"/>
+    <row r="77" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="92"/>
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
@@ -2924,8 +2923,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="88"/>
+    <row r="78" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="92"/>
       <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2941,8 +2940,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="88"/>
+    <row r="79" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="92"/>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
@@ -2958,8 +2957,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="88"/>
+    <row r="80" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="92"/>
       <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
@@ -2975,10 +2974,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="88"/>
+    <row r="81" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="92"/>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -2992,8 +2991,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="88"/>
+    <row r="82" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="92"/>
       <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" s="75" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="6" t="s">
         <v>10</v>
@@ -3047,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C84" s="73"/>
       <c r="D84" s="73"/>
       <c r="E84" s="73"/>
@@ -3057,24 +3056,22 @@
       <c r="I84" s="73"/>
       <c r="J84" s="74"/>
     </row>
-    <row r="85" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="86" t="s">
+    <row r="85" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="94"/>
-      <c r="C85" s="94"/>
-      <c r="D85" s="94"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="94"/>
-      <c r="H85" s="94"/>
-      <c r="I85" s="94"/>
-      <c r="J85" s="94"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B85" s="98"/>
+      <c r="C85" s="98"/>
+      <c r="D85" s="98"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="98"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="98"/>
+      <c r="I85" s="98"/>
+      <c r="J85" s="98"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -3109,53 +3106,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="43"/>
-    <col min="2" max="2" width="14.54296875" style="43" customWidth="1"/>
-    <col min="3" max="10" width="15.54296875" style="43" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="43"/>
+    <col min="1" max="1" width="9.21875" style="43"/>
+    <col min="2" max="2" width="14.5546875" style="43" customWidth="1"/>
+    <col min="3" max="10" width="15.5546875" style="43" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+    </row>
+    <row r="4" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="F4" s="56" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
       <c r="E5" s="28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F5" s="54">
         <f>SUM(F6:F9)</f>
@@ -3169,12 +3168,12 @@
       <c r="I5" s="44"/>
       <c r="J5" s="45"/>
     </row>
-    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" s="76"/>
       <c r="G6" s="77" t="e">
@@ -3185,12 +3184,12 @@
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
     </row>
-    <row r="7" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="29" t="e">
@@ -3201,12 +3200,12 @@
       <c r="I7" s="44"/>
       <c r="J7" s="45"/>
     </row>
-    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
       <c r="E8" s="28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="81" t="e">
@@ -3217,12 +3216,12 @@
       <c r="I8" s="44"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="79" t="e">
@@ -3233,45 +3232,45 @@
       <c r="I9" s="44"/>
       <c r="J9" s="45"/>
     </row>
-    <row r="10" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="F11" s="27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G11" s="31" t="e">
         <f>I22/G22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>16</v>
@@ -3280,21 +3279,21 @@
         <v>17</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="115"/>
-      <c r="B16" s="133" t="s">
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="119"/>
+      <c r="B16" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="26"/>
@@ -3318,8 +3317,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="88"/>
+    <row r="17" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="92"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3344,8 +3343,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
+    <row r="18" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="92"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -3370,8 +3369,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="88"/>
+    <row r="19" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="92"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -3396,8 +3395,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="88"/>
+    <row r="20" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="92"/>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3422,10 +3421,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="88"/>
+    <row r="21" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="92"/>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -3448,7 +3447,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="C22" s="25"/>
       <c r="D22" s="6" t="s">
@@ -3475,34 +3474,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-    </row>
-    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C26" s="39" t="s">
         <v>27</v>
       </c>
@@ -3519,14 +3518,14 @@
         <v>8</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="61"/>
@@ -3536,8 +3535,8 @@
       <c r="G27" s="61"/>
       <c r="H27" s="61"/>
     </row>
-    <row r="28" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="88"/>
+    <row r="28" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="92"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -3548,8 +3547,8 @@
       <c r="G28" s="61"/>
       <c r="H28" s="61"/>
     </row>
-    <row r="29" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="88"/>
+    <row r="29" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="92"/>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
@@ -3560,8 +3559,8 @@
       <c r="G29" s="61"/>
       <c r="H29" s="61"/>
     </row>
-    <row r="30" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="88"/>
+    <row r="30" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="92"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -3572,8 +3571,8 @@
       <c r="G30" s="61"/>
       <c r="H30" s="61"/>
     </row>
-    <row r="31" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="88"/>
+    <row r="31" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="92"/>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
@@ -3584,10 +3583,10 @@
       <c r="G31" s="61"/>
       <c r="H31" s="61"/>
     </row>
-    <row r="32" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="88"/>
+    <row r="32" spans="1:10" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="92"/>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C32" s="61"/>
       <c r="D32" s="61"/>
@@ -3596,7 +3595,7 @@
       <c r="G32" s="61"/>
       <c r="H32" s="61"/>
     </row>
-    <row r="33" spans="1:10" s="47" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" s="47" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="6"/>
       <c r="C33" s="62"/>
@@ -3608,38 +3607,36 @@
       <c r="I33" s="45"/>
       <c r="J33" s="45"/>
     </row>
-    <row r="34" spans="1:10" s="47" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="111" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-    </row>
-    <row r="36" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="86" t="s">
+    <row r="34" spans="1:10" s="47" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="115" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+    </row>
+    <row r="36" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
       <c r="E38" s="44"/>
@@ -3669,55 +3666,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="43" customWidth="1"/>
-    <col min="3" max="9" width="15.54296875" style="43" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="43"/>
+    <col min="1" max="1" width="8.77734375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="43" customWidth="1"/>
+    <col min="3" max="9" width="15.5546875" style="43" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="118"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="122"/>
+    </row>
+    <row r="4" spans="1:10" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="F4" s="56" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
       <c r="E5" s="28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F5" s="54">
         <f>SUM(F6:F9)</f>
@@ -3730,12 +3729,12 @@
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
     </row>
-    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F6" s="76"/>
       <c r="G6" s="77" t="e">
@@ -3745,12 +3744,12 @@
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
     </row>
-    <row r="7" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="29" t="e">
@@ -3760,12 +3759,12 @@
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
     </row>
-    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
       <c r="E8" s="28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="81" t="e">
@@ -3775,12 +3774,12 @@
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
       <c r="E9" s="28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F9" s="78"/>
       <c r="G9" s="79" t="e">
@@ -3790,29 +3789,29 @@
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
     </row>
-    <row r="10" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="J10" s="43"/>
     </row>
-    <row r="11" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="119" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="123" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="J12" s="43"/>
     </row>
-    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
@@ -3826,9 +3825,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="115"/>
-      <c r="B14" s="133" t="s">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="119"/>
+      <c r="B14" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="23">
@@ -3848,8 +3847,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="88"/>
+    <row r="15" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="92"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3870,8 +3869,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="88"/>
+    <row r="16" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="92"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3892,8 +3891,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="88"/>
+    <row r="17" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="92"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3914,8 +3913,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
+    <row r="18" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="92"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3936,10 +3935,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="88"/>
+    <row r="19" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="92"/>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C19" s="23">
         <f t="shared" si="1"/>
@@ -3958,8 +3957,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="88"/>
+    <row r="20" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="92"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="6" t="s">
         <v>10</v>
@@ -3999,40 +3998,40 @@
       </c>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="122" t="s">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="118"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="122"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-    </row>
-    <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C25" s="134" t="s">
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+    </row>
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C25" s="86" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -4048,7 +4047,7 @@
         <v>8</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I25" s="21" t="s">
         <v>9</v>
@@ -4057,11 +4056,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="92" t="s">
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="23"/>
@@ -4076,8 +4075,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="88"/>
+    <row r="27" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="92"/>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
@@ -4093,8 +4092,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="88"/>
+    <row r="28" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="92"/>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
@@ -4110,8 +4109,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="88"/>
+    <row r="29" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="92"/>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
@@ -4127,8 +4126,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="88"/>
+    <row r="30" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="92"/>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
@@ -4144,10 +4143,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="88"/>
+    <row r="31" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="92"/>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -4161,8 +4160,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="88"/>
+    <row r="32" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="92"/>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="47" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" s="47" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -4216,24 +4215,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="86" t="s">
+    <row r="35" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
       <c r="C37" s="44"/>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -4261,18 +4258,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" style="67" customWidth="1"/>
-    <col min="3" max="9" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="67" customWidth="1"/>
+    <col min="3" max="9" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -4283,7 +4282,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:9" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="68"/>
       <c r="C2" s="35"/>
@@ -4294,16 +4293,16 @@
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-    </row>
-    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
@@ -4317,7 +4316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="str">
         <f>IF(ISBLANK(B24),"",B24)</f>
         <v/>
@@ -4332,7 +4331,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="str">
         <f t="shared" ref="B6:B20" si="0">IF(ISBLANK(B25),"",B25)</f>
         <v/>
@@ -4347,7 +4346,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>
       <c r="B7" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4363,7 +4362,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
       <c r="B8" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4379,7 +4378,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
       <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4395,7 +4394,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4411,7 +4410,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4427,7 +4426,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4443,7 +4442,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4459,7 +4458,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4475,7 +4474,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4491,7 +4490,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4507,7 +4506,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4523,7 +4522,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4539,7 +4538,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4555,7 +4554,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
       <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
@@ -4571,19 +4570,19 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-    </row>
-    <row r="23" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+    </row>
+    <row r="23" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23" s="16" t="s">
         <v>22</v>
@@ -4608,7 +4607,7 @@
       </c>
       <c r="I23"/>
     </row>
-    <row r="24" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24" s="16"/>
       <c r="C24" s="23"/>
@@ -4619,7 +4618,7 @@
       <c r="H24" s="23"/>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -4628,7 +4627,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
     </row>
-    <row r="26" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -4637,7 +4636,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -4646,7 +4645,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="57"/>
       <c r="B28" s="16"/>
       <c r="C28" s="23"/>
@@ -4656,7 +4655,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="16"/>
       <c r="C29" s="23"/>
@@ -4666,7 +4665,7 @@
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57"/>
       <c r="B30" s="16"/>
       <c r="C30" s="23"/>
@@ -4676,7 +4675,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="57"/>
       <c r="B31" s="16"/>
       <c r="C31" s="23"/>
@@ -4686,7 +4685,7 @@
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57"/>
       <c r="B32" s="16"/>
       <c r="C32" s="23"/>
@@ -4696,7 +4695,7 @@
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="57"/>
       <c r="B33" s="16"/>
       <c r="C33" s="23"/>
@@ -4706,7 +4705,7 @@
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
     </row>
-    <row r="34" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="57"/>
       <c r="B34" s="16"/>
       <c r="C34" s="23"/>
@@ -4716,7 +4715,7 @@
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="57"/>
       <c r="B35" s="16"/>
       <c r="C35" s="23"/>
@@ -4727,7 +4726,7 @@
       <c r="H35" s="23"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="57"/>
       <c r="B36" s="16"/>
       <c r="C36" s="23"/>
@@ -4738,7 +4737,7 @@
       <c r="H36" s="23"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="57"/>
       <c r="B37" s="16"/>
       <c r="C37" s="23"/>
@@ -4749,7 +4748,7 @@
       <c r="H37" s="23"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="57"/>
       <c r="B38" s="16"/>
       <c r="C38" s="23"/>
@@ -4759,7 +4758,7 @@
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="57"/>
       <c r="B39" s="16"/>
       <c r="C39" s="23"/>
@@ -4769,30 +4768,30 @@
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
     </row>
-    <row r="40" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="132" t="s">
+    <row r="40" spans="1:9" ht="31.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="132"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-    </row>
-    <row r="42" spans="1:9" s="43" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+    </row>
+    <row r="42" spans="1:9" s="43" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="48"/>
-      <c r="C42" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="125"/>
-    </row>
-    <row r="43" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="127" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="129"/>
+    </row>
+    <row r="43" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
       <c r="C43" s="39" t="s">
         <v>27</v>
@@ -4813,8 +4812,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="126" t="s">
+    <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="130" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="41" t="s">
@@ -4845,8 +4844,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="127"/>
+    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="131"/>
       <c r="B45" s="69" t="s">
         <v>5</v>
       </c>
@@ -4875,8 +4874,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="127"/>
+    <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="131"/>
       <c r="B46" s="69" t="s">
         <v>6</v>
       </c>
@@ -4905,8 +4904,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="127"/>
+    <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="131"/>
       <c r="B47" s="69" t="s">
         <v>7</v>
       </c>
@@ -4935,8 +4934,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="127"/>
+    <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="131"/>
       <c r="B48" s="69" t="s">
         <v>8</v>
       </c>
@@ -4965,8 +4964,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="127"/>
+    <row r="49" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="131"/>
       <c r="B49" s="69" t="s">
         <v>32</v>
       </c>
@@ -4995,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50" s="67"/>
       <c r="C50"/>
@@ -5006,30 +5005,30 @@
       <c r="H50"/>
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="59"/>
-      <c r="B51" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="132"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="132"/>
-      <c r="F51" s="132"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-    </row>
-    <row r="52" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="136" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+    </row>
+    <row r="52" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="70"/>
-      <c r="C52" s="123" t="s">
+      <c r="C52" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="125"/>
-    </row>
-    <row r="53" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="129"/>
+    </row>
+    <row r="53" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="32"/>
       <c r="B53" s="39" t="s">
         <v>41</v>
@@ -5054,9 +5053,9 @@
       </c>
       <c r="I53" s="32"/>
     </row>
-    <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="126" t="s">
-        <v>78</v>
+    <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="130" t="s">
+        <v>72</v>
       </c>
       <c r="B54" s="41" t="s">
         <v>27</v>
@@ -5068,8 +5067,8 @@
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="127"/>
+    <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="131"/>
       <c r="B55" s="69" t="s">
         <v>5</v>
       </c>
@@ -5080,8 +5079,8 @@
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="127"/>
+    <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="131"/>
       <c r="B56" s="69" t="s">
         <v>6</v>
       </c>
@@ -5092,8 +5091,8 @@
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="127"/>
+    <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="131"/>
       <c r="B57" s="69" t="s">
         <v>7</v>
       </c>
@@ -5104,8 +5103,8 @@
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="127"/>
+    <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="131"/>
       <c r="B58" s="69" t="s">
         <v>8</v>
       </c>
@@ -5116,8 +5115,8 @@
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
     </row>
-    <row r="59" spans="1:9" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="127"/>
+    <row r="59" spans="1:9" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="131"/>
       <c r="B59" s="69" t="s">
         <v>32</v>
       </c>
@@ -5129,7 +5128,7 @@
       <c r="H59" s="23"/>
       <c r="I59"/>
     </row>
-    <row r="60" spans="1:9" s="59" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" s="59" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="71"/>
       <c r="C60" s="72"/>
       <c r="D60" s="72"/>
@@ -5138,31 +5137,31 @@
       <c r="G60" s="72"/>
       <c r="H60" s="72"/>
     </row>
-    <row r="61" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B61" s="128" t="s">
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B61" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="128"/>
-      <c r="D61" s="128"/>
-      <c r="E61" s="128"/>
-      <c r="F61" s="128"/>
-      <c r="G61" s="128"/>
-      <c r="H61" s="128"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C61" s="132"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="132"/>
+      <c r="G61" s="132"/>
+      <c r="H61" s="132"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="32"/>
-      <c r="B62" s="129" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="131"/>
+      <c r="B62" s="133" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
+      <c r="G62" s="134"/>
+      <c r="H62" s="135"/>
       <c r="I62" s="32"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B63" s="16" t="s">
         <v>22</v>
       </c>
@@ -5185,7 +5184,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B64" s="16"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -5194,7 +5193,7 @@
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B65" s="16"/>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
@@ -5203,7 +5202,7 @@
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B66" s="16"/>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
@@ -5212,7 +5211,7 @@
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B67" s="16"/>
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
@@ -5221,7 +5220,7 @@
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B68" s="16"/>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
@@ -5230,7 +5229,7 @@
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B69" s="16"/>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
@@ -5239,7 +5238,7 @@
       <c r="G69" s="23"/>
       <c r="H69" s="23"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B70" s="16"/>
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
@@ -5248,7 +5247,7 @@
       <c r="G70" s="23"/>
       <c r="H70" s="23"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B71" s="16"/>
       <c r="C71" s="23"/>
       <c r="D71" s="23"/>
@@ -5257,7 +5256,7 @@
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B72" s="16"/>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
@@ -5266,7 +5265,7 @@
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B73" s="16"/>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
@@ -5275,7 +5274,7 @@
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B74" s="16"/>
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
@@ -5284,7 +5283,7 @@
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B75" s="16"/>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -5293,7 +5292,7 @@
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" s="16"/>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
@@ -5302,7 +5301,7 @@
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" s="16"/>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -5311,7 +5310,7 @@
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
     </row>
-    <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78" s="16"/>
       <c r="C78" s="23"/>
@@ -5321,7 +5320,7 @@
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
     </row>
-    <row r="79" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79" s="16"/>
       <c r="C79" s="23"/>
@@ -5331,7 +5330,7 @@
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
     </row>
-    <row r="80" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80" s="67"/>
       <c r="C80"/>
@@ -5341,23 +5340,23 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="67"/>
     </row>
-    <row r="82" spans="1:9" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="86" t="s">
+    <row r="82" spans="1:9" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="86"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="86"/>
-      <c r="E82" s="86"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="86"/>
-      <c r="H82" s="86"/>
-      <c r="I82" s="86"/>
-    </row>
-    <row r="83" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="90"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="90"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="90"/>
+      <c r="G82" s="90"/>
+      <c r="H82" s="90"/>
+      <c r="I82" s="90"/>
+    </row>
+    <row r="83" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="67"/>
       <c r="C83" s="65"/>
       <c r="D83" s="65"/>
@@ -5367,10 +5366,8 @@
       <c r="H83" s="65"/>
       <c r="I83" s="65"/>
     </row>
-    <row r="84" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="66" t="s">
-        <v>50</v>
-      </c>
+    <row r="84" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="66"/>
       <c r="B84" s="67"/>
       <c r="C84" s="65"/>
       <c r="D84" s="65"/>
